--- a/output/1Y_P55_KFSDIV.xlsx
+++ b/output/1Y_P55_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>13.835</v>
       </c>
       <c r="C2" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D2" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>722.8045</v>
+        <v>721.3602</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>14.4216</v>
       </c>
       <c r="C3" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D3" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E3" s="1">
-        <v>722.8045</v>
+        <v>721.3602</v>
       </c>
       <c r="F3" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="H3" s="1">
-        <v>10423.9971</v>
+        <v>10382.393</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10423.9971</v>
+        <v>10382.393</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0424</v>
+        <v>0.0382</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,46 +821,46 @@
         <v>13.2404</v>
       </c>
       <c r="C4" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D4" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E4" s="1">
-        <v>1416.2088</v>
+        <v>1413.3778</v>
       </c>
       <c r="F4" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="H4" s="1">
-        <v>18751.1713</v>
+        <v>18676.2326</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18751.1713</v>
+        <v>18676.2326</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>14.1222</v>
+        <v>14.1505</v>
       </c>
       <c r="M4" s="1">
         <v>0.4</v>
       </c>
       <c r="N4" s="1">
-        <v>260.2096</v>
+        <v>259.6897</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9739.7904</v>
+        <v>-9740.310299999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0819</v>
+        <v>-0.0837</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>12.382</v>
       </c>
       <c r="C5" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D5" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E5" s="1">
-        <v>2171.473</v>
+        <v>2167.1334</v>
       </c>
       <c r="F5" s="1">
-        <v>809.9589999999999</v>
+        <v>808.3353</v>
       </c>
       <c r="H5" s="1">
-        <v>26887.1788</v>
+        <v>26779.7004</v>
       </c>
       <c r="I5" s="1">
-        <v>260.2096</v>
+        <v>259.6897</v>
       </c>
       <c r="J5" s="1">
-        <v>27147.3884</v>
+        <v>27039.39</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.8155</v>
+        <v>13.8432</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10028.9122</v>
+        <v>-10028.8544</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0558</v>
+        <v>-0.0571</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>11.9583</v>
       </c>
       <c r="C6" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D6" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E6" s="1">
-        <v>2981.432</v>
+        <v>2975.4687</v>
       </c>
       <c r="F6" s="1">
-        <v>838.657</v>
+        <v>836.9724</v>
       </c>
       <c r="H6" s="1">
-        <v>35652.8583</v>
+        <v>35510.4332</v>
       </c>
       <c r="I6" s="1">
-        <v>231.2974</v>
+        <v>230.8353</v>
       </c>
       <c r="J6" s="1">
-        <v>35884.1557</v>
+        <v>35741.2685</v>
       </c>
       <c r="K6" s="1">
-        <v>40028.9122</v>
+        <v>40028.8544</v>
       </c>
       <c r="L6" s="1">
-        <v>13.4261</v>
+        <v>13.453</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10028.9122</v>
+        <v>-10028.8544</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.034</v>
+        <v>-0.035</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,46 +971,46 @@
         <v>12.2036</v>
       </c>
       <c r="C7" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D7" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E7" s="1">
-        <v>3820.089</v>
+        <v>3812.4411</v>
       </c>
       <c r="F7" s="1">
-        <v>821.7995</v>
+        <v>820.1482</v>
       </c>
       <c r="H7" s="1">
-        <v>46618.8383</v>
+        <v>46432.4822</v>
       </c>
       <c r="I7" s="1">
-        <v>202.3853</v>
+        <v>201.9809</v>
       </c>
       <c r="J7" s="1">
-        <v>46821.2235</v>
+        <v>46634.4631</v>
       </c>
       <c r="K7" s="1">
-        <v>50057.8244</v>
+        <v>50057.7088</v>
       </c>
       <c r="L7" s="1">
-        <v>13.1038</v>
+        <v>13.1301</v>
       </c>
       <c r="M7" s="1">
         <v>0.4</v>
       </c>
       <c r="N7" s="1">
-        <v>1073.3155</v>
+        <v>1071.1687</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8955.5967</v>
+        <v>-8957.6857</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0204</v>
+        <v>0.0195</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>12.9136</v>
       </c>
       <c r="C8" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D8" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E8" s="1">
-        <v>4641.8885</v>
+        <v>4632.5893</v>
       </c>
       <c r="F8" s="1">
-        <v>790.4688</v>
+        <v>788.8545</v>
       </c>
       <c r="H8" s="1">
-        <v>59943.4913</v>
+        <v>59703.8841</v>
       </c>
       <c r="I8" s="1">
-        <v>1246.7886</v>
+        <v>1244.2952</v>
       </c>
       <c r="J8" s="1">
-        <v>61190.2799</v>
+        <v>60948.1793</v>
       </c>
       <c r="K8" s="1">
-        <v>60086.7365</v>
+        <v>60086.5632</v>
       </c>
       <c r="L8" s="1">
-        <v>12.9445</v>
+        <v>12.9704</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10207.7981</v>
+        <v>-10207.3825</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0769</v>
+        <v>0.0762</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>13.4338</v>
       </c>
       <c r="C9" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D9" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E9" s="1">
-        <v>5432.3573</v>
+        <v>5421.4438</v>
       </c>
       <c r="F9" s="1">
-        <v>759.8593</v>
+        <v>758.3099</v>
       </c>
       <c r="H9" s="1">
-        <v>72977.20170000001</v>
+        <v>72684.7543</v>
       </c>
       <c r="I9" s="1">
-        <v>1038.9905</v>
+        <v>1036.9126</v>
       </c>
       <c r="J9" s="1">
-        <v>74016.1922</v>
+        <v>73721.667</v>
       </c>
       <c r="K9" s="1">
-        <v>70294.5346</v>
+        <v>70293.9458</v>
       </c>
       <c r="L9" s="1">
-        <v>12.94</v>
+        <v>12.9659</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10207.7981</v>
+        <v>-10207.3825</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0397</v>
+        <v>0.0391</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,46 +1121,46 @@
         <v>12.9657</v>
       </c>
       <c r="C10" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D10" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E10" s="1">
-        <v>6192.2166</v>
+        <v>6179.7537</v>
       </c>
       <c r="F10" s="1">
-        <v>787.2925</v>
+        <v>785.6849</v>
       </c>
       <c r="H10" s="1">
-        <v>80286.4232</v>
+        <v>79964.77680000001</v>
       </c>
       <c r="I10" s="1">
-        <v>831.1924</v>
+        <v>829.5300999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>81117.6156</v>
+        <v>80794.3069</v>
       </c>
       <c r="K10" s="1">
-        <v>80502.3327</v>
+        <v>80501.32829999999</v>
       </c>
       <c r="L10" s="1">
-        <v>13.0006</v>
+        <v>13.0266</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1466.7365</v>
+        <v>1463.7898</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8741.061600000001</v>
+        <v>-8743.592699999999</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0345</v>
+        <v>-0.035</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>13.3568</v>
       </c>
       <c r="C11" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D11" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E11" s="1">
-        <v>6979.5091</v>
+        <v>6965.4386</v>
       </c>
       <c r="F11" s="1">
-        <v>800.8438</v>
+        <v>799.1357</v>
       </c>
       <c r="H11" s="1">
-        <v>93223.90730000001</v>
+        <v>92849.993</v>
       </c>
       <c r="I11" s="1">
-        <v>2090.1308</v>
+        <v>2085.9374</v>
       </c>
       <c r="J11" s="1">
-        <v>95314.038</v>
+        <v>94935.9304</v>
       </c>
       <c r="K11" s="1">
-        <v>90710.1308</v>
+        <v>90708.7108</v>
       </c>
       <c r="L11" s="1">
-        <v>12.9966</v>
+        <v>13.0227</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10696.7103</v>
+        <v>-10695.3125</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0461</v>
+        <v>0.0456</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>13.2487</v>
       </c>
       <c r="C12" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D12" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E12" s="1">
-        <v>7780.3529</v>
+        <v>7764.5743</v>
       </c>
       <c r="F12" s="1">
-        <v>807.3781</v>
+        <v>805.6611</v>
       </c>
       <c r="H12" s="1">
-        <v>103079.5614</v>
+        <v>102664.7541</v>
       </c>
       <c r="I12" s="1">
-        <v>1393.4205</v>
+        <v>1390.6249</v>
       </c>
       <c r="J12" s="1">
-        <v>104472.9819</v>
+        <v>104055.3791</v>
       </c>
       <c r="K12" s="1">
-        <v>101406.8411</v>
+        <v>101404.0233</v>
       </c>
       <c r="L12" s="1">
-        <v>13.0337</v>
+        <v>13.0598</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10696.7103</v>
+        <v>-10695.3125</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.008</v>
+        <v>-0.008399999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,46 +1271,46 @@
         <v>13.3991</v>
       </c>
       <c r="C13" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D13" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E13" s="1">
-        <v>8587.731</v>
+        <v>8570.2354</v>
       </c>
       <c r="F13" s="1">
-        <v>798.3156</v>
+        <v>796.6179</v>
       </c>
       <c r="H13" s="1">
-        <v>115067.8664</v>
+        <v>114603.7589</v>
       </c>
       <c r="I13" s="1">
-        <v>696.7103</v>
+        <v>695.3125</v>
       </c>
       <c r="J13" s="1">
-        <v>115764.5766</v>
+        <v>115299.0714</v>
       </c>
       <c r="K13" s="1">
-        <v>112103.5513</v>
+        <v>112099.3357</v>
       </c>
       <c r="L13" s="1">
-        <v>13.0539</v>
+        <v>13.0801</v>
       </c>
       <c r="M13" s="1">
         <v>0.4</v>
       </c>
       <c r="N13" s="1">
-        <v>2800.927</v>
+        <v>2795.2467</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7895.7832</v>
+        <v>-7900.0657</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0113</v>
+        <v>0.0109</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>13.5985</v>
       </c>
       <c r="C14" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D14" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E14" s="1">
-        <v>9386.0466</v>
+        <v>9366.853300000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9386.0466</v>
+        <v>-9366.853300000001</v>
       </c>
       <c r="H14" s="1">
-        <v>127636.1543</v>
+        <v>127120.3765</v>
       </c>
       <c r="I14" s="1">
-        <v>2800.927</v>
+        <v>2795.2467</v>
       </c>
       <c r="J14" s="1">
-        <v>130437.0814</v>
+        <v>129915.6232</v>
       </c>
       <c r="K14" s="1">
-        <v>122800.2616</v>
+        <v>122794.6482</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0833</v>
+        <v>13.1095</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>127636.1543</v>
+        <v>127120.3765</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0372</v>
+        <v>0.0368</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>13.835</v>
       </c>
       <c r="C2" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D2" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>722.8045</v>
+        <v>721.3602</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>14.4216</v>
       </c>
       <c r="C3" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D3" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E3" s="1">
-        <v>722.8045</v>
+        <v>721.3602</v>
       </c>
       <c r="F3" s="1">
-        <v>664.0042</v>
+        <v>668.2234999999999</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10423.9971</v>
+        <v>10382.393</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10423.9971</v>
+        <v>10382.393</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9576.002899999999</v>
+        <v>-9656.163500000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0424</v>
+        <v>0.0382</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,49 +1556,49 @@
         <v>13.2404</v>
       </c>
       <c r="C4" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D4" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E4" s="1">
-        <v>1386.8087</v>
+        <v>1389.5837</v>
       </c>
       <c r="F4" s="1">
-        <v>787.2872</v>
+        <v>779.6725</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>18361.9016</v>
+        <v>18361.8198</v>
       </c>
       <c r="I4" s="1">
-        <v>423.9971</v>
+        <v>343.8365</v>
       </c>
       <c r="J4" s="1">
-        <v>18785.8987</v>
+        <v>18705.6563</v>
       </c>
       <c r="K4" s="1">
-        <v>19576.0029</v>
+        <v>19656.1635</v>
       </c>
       <c r="L4" s="1">
-        <v>14.1159</v>
+        <v>14.1454</v>
       </c>
       <c r="M4" s="1">
         <v>0.4</v>
       </c>
       <c r="N4" s="1">
-        <v>260.2096</v>
+        <v>259.6897</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10163.7875</v>
+        <v>-10084.1469</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.08019999999999999</v>
+        <v>-0.0823</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>12.382</v>
       </c>
       <c r="C5" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D5" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E5" s="1">
-        <v>2174.0959</v>
+        <v>2169.2561</v>
       </c>
       <c r="F5" s="1">
-        <v>828.6391</v>
+        <v>826.9408</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>26919.6548</v>
+        <v>26805.932</v>
       </c>
       <c r="I5" s="1">
-        <v>260.2096</v>
+        <v>259.6897</v>
       </c>
       <c r="J5" s="1">
-        <v>27179.8644</v>
+        <v>27065.6216</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.7988</v>
+        <v>13.8296</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10260.2096</v>
+        <v>-10259.6897</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0558</v>
+        <v>-0.0571</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>11.9583</v>
       </c>
       <c r="C6" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D6" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E6" s="1">
-        <v>3002.735</v>
+        <v>2996.197</v>
       </c>
       <c r="F6" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>35907.6056</v>
+        <v>35757.8133</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>35907.6056</v>
+        <v>35757.8133</v>
       </c>
       <c r="K6" s="1">
-        <v>40260.2096</v>
+        <v>40259.6897</v>
       </c>
       <c r="L6" s="1">
-        <v>13.4078</v>
+        <v>13.4369</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0342</v>
+        <v>-0.0353</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,49 +1715,49 @@
         <v>12.2036</v>
       </c>
       <c r="C7" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D7" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E7" s="1">
-        <v>3838.9742</v>
+        <v>3830.7613</v>
       </c>
       <c r="F7" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>46849.306</v>
+        <v>46655.608</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>46849.306</v>
+        <v>46655.608</v>
       </c>
       <c r="K7" s="1">
-        <v>50260.2096</v>
+        <v>50259.6897</v>
       </c>
       <c r="L7" s="1">
-        <v>13.0921</v>
+        <v>13.12</v>
       </c>
       <c r="M7" s="1">
         <v>0.4</v>
       </c>
       <c r="N7" s="1">
-        <v>1080.9846</v>
+        <v>1078.6309</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8919.0154</v>
+        <v>-8921.3691</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0205</v>
+        <v>0.0196</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>12.9136</v>
       </c>
       <c r="C8" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D8" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E8" s="1">
-        <v>4658.4046</v>
+        <v>4648.5498</v>
       </c>
       <c r="F8" s="1">
-        <v>762.2372</v>
+        <v>782.9435</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>60156.7733</v>
+        <v>59909.5806</v>
       </c>
       <c r="I8" s="1">
-        <v>1080.9846</v>
+        <v>1078.6309</v>
       </c>
       <c r="J8" s="1">
-        <v>61237.7578</v>
+        <v>60988.2115</v>
       </c>
       <c r="K8" s="1">
-        <v>60260.2096</v>
+        <v>60259.6897</v>
       </c>
       <c r="L8" s="1">
-        <v>12.9358</v>
+        <v>12.9631</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-9843.226699999999</v>
+        <v>-10130.8976</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0772</v>
+        <v>0.0765</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>13.4338</v>
       </c>
       <c r="C9" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D9" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E9" s="1">
-        <v>5420.6418</v>
+        <v>5431.4934</v>
       </c>
       <c r="F9" s="1">
-        <v>534.4863</v>
+        <v>535.5833</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>72819.81789999999</v>
+        <v>72819.48820000001</v>
       </c>
       <c r="I9" s="1">
-        <v>1237.7578</v>
+        <v>947.7333</v>
       </c>
       <c r="J9" s="1">
-        <v>74057.5757</v>
+        <v>73767.2215</v>
       </c>
       <c r="K9" s="1">
-        <v>70103.43640000001</v>
+        <v>70390.5873</v>
       </c>
       <c r="L9" s="1">
-        <v>12.9327</v>
+        <v>12.9597</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7180.1821</v>
+        <v>-7209.3262</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0396</v>
+        <v>0.0391</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,49 +1874,49 @@
         <v>12.9657</v>
       </c>
       <c r="C10" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D10" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E10" s="1">
-        <v>5955.1281</v>
+        <v>5967.0767</v>
       </c>
       <c r="F10" s="1">
-        <v>986.2634</v>
+        <v>988.2086</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>77212.4045</v>
+        <v>77212.7785</v>
       </c>
       <c r="I10" s="1">
-        <v>4057.5757</v>
+        <v>3738.4071</v>
       </c>
       <c r="J10" s="1">
-        <v>81269.98020000001</v>
+        <v>80951.1856</v>
       </c>
       <c r="K10" s="1">
-        <v>77283.6185</v>
+        <v>77599.9135</v>
       </c>
       <c r="L10" s="1">
-        <v>12.9777</v>
+        <v>13.0047</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1463.5733</v>
+        <v>1466.5032</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11324.0222</v>
+        <v>-11372.0063</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0332</v>
+        <v>-0.0336</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>13.3568</v>
       </c>
       <c r="C11" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D11" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E11" s="1">
-        <v>6941.3915</v>
+        <v>6955.2852</v>
       </c>
       <c r="F11" s="1">
-        <v>545.4317</v>
+        <v>546.5339</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>92714.7782</v>
+        <v>92714.64780000001</v>
       </c>
       <c r="I11" s="1">
-        <v>2733.5535</v>
+        <v>2366.4008</v>
       </c>
       <c r="J11" s="1">
-        <v>95448.3318</v>
+        <v>95081.04859999999</v>
       </c>
       <c r="K11" s="1">
-        <v>90071.21400000001</v>
+        <v>90438.423</v>
       </c>
       <c r="L11" s="1">
-        <v>12.976</v>
+        <v>13.0028</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,10 +1966,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7285.2218</v>
+        <v>-7314.5917</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0458</v>
+        <v>0.0454</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>13.2487</v>
       </c>
       <c r="C12" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D12" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E12" s="1">
-        <v>7486.8232</v>
+        <v>7501.8192</v>
       </c>
       <c r="F12" s="1">
-        <v>815.8782</v>
+        <v>817.5225</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>99190.6744</v>
+        <v>99190.5537</v>
       </c>
       <c r="I12" s="1">
-        <v>5448.3318</v>
+        <v>5051.8091</v>
       </c>
       <c r="J12" s="1">
-        <v>104639.0062</v>
+        <v>104242.3628</v>
       </c>
       <c r="K12" s="1">
-        <v>97356.4357</v>
+        <v>97753.0147</v>
       </c>
       <c r="L12" s="1">
-        <v>13.0037</v>
+        <v>13.0306</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10809.3256</v>
+        <v>-10852.775</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0077</v>
+        <v>-0.008</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,49 +2033,49 @@
         <v>13.3991</v>
       </c>
       <c r="C13" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D13" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E13" s="1">
-        <v>8302.7014</v>
+        <v>8319.341700000001</v>
       </c>
       <c r="F13" s="1">
-        <v>653.124</v>
+        <v>654.4324</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>111248.7263</v>
+        <v>111248.7332</v>
       </c>
       <c r="I13" s="1">
-        <v>4639.0062</v>
+        <v>4199.0341</v>
       </c>
       <c r="J13" s="1">
-        <v>115887.7325</v>
+        <v>115447.7673</v>
       </c>
       <c r="K13" s="1">
-        <v>108165.7613</v>
+        <v>108605.7897</v>
       </c>
       <c r="L13" s="1">
-        <v>13.0278</v>
+        <v>13.0546</v>
       </c>
       <c r="M13" s="1">
         <v>0.4</v>
       </c>
       <c r="N13" s="1">
-        <v>2695.2563</v>
+        <v>2700.6549</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6056.0174</v>
+        <v>-6085.6895</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0109</v>
+        <v>0.0106</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>13.5985</v>
       </c>
       <c r="C14" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D14" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E14" s="1">
-        <v>8955.8254</v>
+        <v>8973.774100000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-8955.8254</v>
+        <v>-8973.774100000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>121785.7916</v>
+        <v>121785.7811</v>
       </c>
       <c r="I14" s="1">
-        <v>8582.988799999999</v>
+        <v>8113.3446</v>
       </c>
       <c r="J14" s="1">
-        <v>130368.7804</v>
+        <v>129899.1257</v>
       </c>
       <c r="K14" s="1">
-        <v>116917.035</v>
+        <v>117392.1341</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0549</v>
+        <v>13.0817</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121785.7916</v>
+        <v>121785.7811</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0356</v>
+        <v>0.0355</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>13.835</v>
       </c>
       <c r="C2" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D2" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>722.8045</v>
+        <v>721.3602</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>14.4216</v>
       </c>
       <c r="C3" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D3" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E3" s="1">
-        <v>722.8045</v>
+        <v>721.3602</v>
       </c>
       <c r="F3" s="1">
-        <v>667.4712</v>
+        <v>671.6974</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10423.9971</v>
+        <v>10382.393</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10423.9971</v>
+        <v>10382.393</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9626.002899999999</v>
+        <v>-9706.3639</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0424</v>
+        <v>0.0382</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,49 +2324,49 @@
         <v>13.2404</v>
       </c>
       <c r="C4" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D4" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E4" s="1">
-        <v>1390.2757</v>
+        <v>1393.0576</v>
       </c>
       <c r="F4" s="1">
-        <v>783.5109</v>
+        <v>775.8886</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>18407.8063</v>
+        <v>18407.7243</v>
       </c>
       <c r="I4" s="1">
-        <v>373.9971</v>
+        <v>293.6361</v>
       </c>
       <c r="J4" s="1">
-        <v>18781.8035</v>
+        <v>18701.3604</v>
       </c>
       <c r="K4" s="1">
-        <v>19626.0029</v>
+        <v>19706.3639</v>
       </c>
       <c r="L4" s="1">
-        <v>14.1166</v>
+        <v>14.1461</v>
       </c>
       <c r="M4" s="1">
         <v>0.4</v>
       </c>
       <c r="N4" s="1">
-        <v>260.2096</v>
+        <v>259.6897</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10113.7875</v>
+        <v>-10033.9464</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0804</v>
+        <v>-0.0825</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>12.382</v>
       </c>
       <c r="C5" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D5" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E5" s="1">
-        <v>2173.7866</v>
+        <v>2168.9462</v>
       </c>
       <c r="F5" s="1">
-        <v>828.6391</v>
+        <v>826.9408</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>26915.8251</v>
+        <v>26802.1021</v>
       </c>
       <c r="I5" s="1">
-        <v>260.2096</v>
+        <v>259.6897</v>
       </c>
       <c r="J5" s="1">
-        <v>27176.0347</v>
+        <v>27061.7918</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.8008</v>
+        <v>13.8316</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10260.2096</v>
+        <v>-10259.6897</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0558</v>
+        <v>-0.0571</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>11.9583</v>
       </c>
       <c r="C6" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D6" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E6" s="1">
-        <v>3002.4257</v>
+        <v>2995.8871</v>
       </c>
       <c r="F6" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>35903.9069</v>
+        <v>35754.1145</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>35903.9069</v>
+        <v>35754.1145</v>
       </c>
       <c r="K6" s="1">
-        <v>40260.2096</v>
+        <v>40259.6897</v>
       </c>
       <c r="L6" s="1">
-        <v>13.4092</v>
+        <v>13.4383</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2472,7 +2472,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0342</v>
+        <v>-0.0353</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,49 +2483,49 @@
         <v>12.2036</v>
       </c>
       <c r="C7" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D7" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E7" s="1">
-        <v>3838.6649</v>
+        <v>3830.4514</v>
       </c>
       <c r="F7" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>46845.5314</v>
+        <v>46651.8334</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>46845.5314</v>
+        <v>46651.8334</v>
       </c>
       <c r="K7" s="1">
-        <v>50260.2096</v>
+        <v>50259.6897</v>
       </c>
       <c r="L7" s="1">
-        <v>13.0931</v>
+        <v>13.1211</v>
       </c>
       <c r="M7" s="1">
         <v>0.4</v>
       </c>
       <c r="N7" s="1">
-        <v>1080.8732</v>
+        <v>1078.5193</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8919.1268</v>
+        <v>-8921.4807</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0205</v>
+        <v>0.0196</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>12.9136</v>
       </c>
       <c r="C8" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D8" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E8" s="1">
-        <v>4658.0953</v>
+        <v>4648.2399</v>
       </c>
       <c r="F8" s="1">
-        <v>844.5371</v>
+        <v>856.1783</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>60152.7791</v>
+        <v>59905.5863</v>
       </c>
       <c r="I8" s="1">
-        <v>1080.8732</v>
+        <v>1078.5193</v>
       </c>
       <c r="J8" s="1">
-        <v>61233.6523</v>
+        <v>60984.1056</v>
       </c>
       <c r="K8" s="1">
-        <v>60260.2096</v>
+        <v>60259.6897</v>
       </c>
       <c r="L8" s="1">
-        <v>12.9367</v>
+        <v>12.964</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10906.0148</v>
+        <v>-11078.5193</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0772</v>
+        <v>0.0765</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>13.4338</v>
       </c>
       <c r="C9" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D9" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E9" s="1">
-        <v>5502.6324</v>
+        <v>5504.4182</v>
       </c>
       <c r="F9" s="1">
-        <v>557.7591</v>
+        <v>568.1331</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>73921.26330000001</v>
+        <v>73797.1847</v>
       </c>
       <c r="I9" s="1">
-        <v>174.8584</v>
+        <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>74096.1217</v>
+        <v>73797.1847</v>
       </c>
       <c r="K9" s="1">
-        <v>71166.22440000001</v>
+        <v>71338.209</v>
       </c>
       <c r="L9" s="1">
-        <v>12.9331</v>
+        <v>12.9602</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7492.8246</v>
+        <v>-7647.4687</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0402</v>
+        <v>0.0396</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,49 +2642,49 @@
         <v>12.9657</v>
       </c>
       <c r="C10" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D10" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E10" s="1">
-        <v>6060.3915</v>
+        <v>6072.5513</v>
       </c>
       <c r="F10" s="1">
-        <v>978.1218</v>
+        <v>950.8018</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>78577.21859999999</v>
+        <v>78577.59910000001</v>
       </c>
       <c r="I10" s="1">
-        <v>2682.0339</v>
+        <v>2352.5313</v>
       </c>
       <c r="J10" s="1">
-        <v>81259.2524</v>
+        <v>80930.1305</v>
       </c>
       <c r="K10" s="1">
-        <v>78659.049</v>
+        <v>78985.6777</v>
       </c>
       <c r="L10" s="1">
-        <v>12.9792</v>
+        <v>13.007</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1485.7108</v>
+        <v>1486.1929</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11196.3231</v>
+        <v>-10866.3384</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0337</v>
+        <v>-0.0342</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>13.3568</v>
       </c>
       <c r="C11" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D11" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E11" s="1">
-        <v>7038.5133</v>
+        <v>7023.3531</v>
       </c>
       <c r="F11" s="1">
-        <v>619.0291999999999</v>
+        <v>649.5273999999999</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>94012.015</v>
+        <v>93621.9985</v>
       </c>
       <c r="I11" s="1">
-        <v>1485.7108</v>
+        <v>1486.1929</v>
       </c>
       <c r="J11" s="1">
-        <v>95497.7257</v>
+        <v>95108.1915</v>
       </c>
       <c r="K11" s="1">
-        <v>91341.08289999999</v>
+        <v>91338.209</v>
       </c>
       <c r="L11" s="1">
-        <v>12.9773</v>
+        <v>13.0049</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8268.249100000001</v>
+        <v>-8693.015299999999</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0464</v>
+        <v>0.0459</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>13.2487</v>
       </c>
       <c r="C12" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D12" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E12" s="1">
-        <v>7657.5425</v>
+        <v>7672.8805</v>
       </c>
       <c r="F12" s="1">
-        <v>855.8713</v>
+        <v>857.5959</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>101452.4837</v>
+        <v>101452.3603</v>
       </c>
       <c r="I12" s="1">
-        <v>3217.4617</v>
+        <v>2793.1777</v>
       </c>
       <c r="J12" s="1">
-        <v>104669.9454</v>
+        <v>104245.5379</v>
       </c>
       <c r="K12" s="1">
-        <v>99609.3319</v>
+        <v>100031.2243</v>
       </c>
       <c r="L12" s="1">
-        <v>13.008</v>
+        <v>13.037</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11339.1817</v>
+        <v>-11384.7577</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0078</v>
+        <v>-0.008200000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,49 +2801,49 @@
         <v>13.3991</v>
       </c>
       <c r="C13" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D13" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E13" s="1">
-        <v>8513.4138</v>
+        <v>8530.4764</v>
       </c>
       <c r="F13" s="1">
-        <v>692.8481</v>
+        <v>694.2361</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>114072.0828</v>
+        <v>114072.0899</v>
       </c>
       <c r="I13" s="1">
-        <v>1878.28</v>
+        <v>1408.42</v>
       </c>
       <c r="J13" s="1">
-        <v>115950.3628</v>
+        <v>115480.5099</v>
       </c>
       <c r="K13" s="1">
-        <v>110948.5136</v>
+        <v>111415.982</v>
       </c>
       <c r="L13" s="1">
-        <v>13.0322</v>
+        <v>13.0609</v>
       </c>
       <c r="M13" s="1">
         <v>0.4</v>
       </c>
       <c r="N13" s="1">
-        <v>2756.7153</v>
+        <v>2762.237</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6526.8256</v>
+        <v>-6558.5079</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0112</v>
+        <v>0.0108</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>13.5985</v>
       </c>
       <c r="C14" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D14" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E14" s="1">
-        <v>9206.2619</v>
+        <v>9224.712600000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-9206.2619</v>
+        <v>-9224.712600000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>125191.3524</v>
+        <v>125191.3415</v>
       </c>
       <c r="I14" s="1">
-        <v>5351.4544</v>
+        <v>4849.9121</v>
       </c>
       <c r="J14" s="1">
-        <v>130542.8068</v>
+        <v>130041.2536</v>
       </c>
       <c r="K14" s="1">
-        <v>120232.0545</v>
+        <v>120736.7269</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0598</v>
+        <v>13.0884</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125191.3524</v>
+        <v>125191.3415</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0365</v>
+        <v>0.0363</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>13.835</v>
       </c>
       <c r="C2" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D2" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>722.8045</v>
+        <v>721.3602</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>14.4216</v>
       </c>
       <c r="C3" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D3" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E3" s="1">
-        <v>722.8045</v>
+        <v>721.3602</v>
       </c>
       <c r="F3" s="1">
-        <v>670.9382000000001</v>
+        <v>675.1713999999999</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10423.9971</v>
+        <v>10382.393</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10423.9971</v>
+        <v>10382.393</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9676.002899999999</v>
+        <v>-9756.5643</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0424</v>
+        <v>0.0382</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,49 +3092,49 @@
         <v>13.2404</v>
       </c>
       <c r="C4" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D4" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E4" s="1">
-        <v>1393.7427</v>
+        <v>1396.5316</v>
       </c>
       <c r="F4" s="1">
-        <v>779.7345</v>
+        <v>772.1047</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>18453.7111</v>
+        <v>18453.6289</v>
       </c>
       <c r="I4" s="1">
-        <v>323.9971</v>
+        <v>243.4357</v>
       </c>
       <c r="J4" s="1">
-        <v>18777.7082</v>
+        <v>18697.0645</v>
       </c>
       <c r="K4" s="1">
-        <v>19676.0029</v>
+        <v>19756.5643</v>
       </c>
       <c r="L4" s="1">
-        <v>14.1174</v>
+        <v>14.1469</v>
       </c>
       <c r="M4" s="1">
         <v>0.4</v>
       </c>
       <c r="N4" s="1">
-        <v>260.2096</v>
+        <v>259.6897</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10063.7875</v>
+        <v>-9983.745999999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0806</v>
+        <v>-0.0827</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>12.382</v>
       </c>
       <c r="C5" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D5" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E5" s="1">
-        <v>2173.4773</v>
+        <v>2168.6363</v>
       </c>
       <c r="F5" s="1">
-        <v>828.6391</v>
+        <v>826.9408</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>26911.9953</v>
+        <v>26798.2723</v>
       </c>
       <c r="I5" s="1">
-        <v>260.2096</v>
+        <v>259.6897</v>
       </c>
       <c r="J5" s="1">
-        <v>27172.2049</v>
+        <v>27057.962</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.8028</v>
+        <v>13.8336</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10260.2096</v>
+        <v>-10259.6897</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0558</v>
+        <v>-0.0571</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>11.9583</v>
       </c>
       <c r="C6" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D6" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E6" s="1">
-        <v>3002.1164</v>
+        <v>2995.5771</v>
       </c>
       <c r="F6" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>35900.2082</v>
+        <v>35750.4157</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>35900.2082</v>
+        <v>35750.4157</v>
       </c>
       <c r="K6" s="1">
-        <v>40260.2096</v>
+        <v>40259.6897</v>
       </c>
       <c r="L6" s="1">
-        <v>13.4106</v>
+        <v>13.4397</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0342</v>
+        <v>-0.0353</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,49 +3251,49 @@
         <v>12.2036</v>
       </c>
       <c r="C7" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D7" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E7" s="1">
-        <v>3838.3556</v>
+        <v>3830.1414</v>
       </c>
       <c r="F7" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>46841.7569</v>
+        <v>46648.0587</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>46841.7569</v>
+        <v>46648.0587</v>
       </c>
       <c r="K7" s="1">
-        <v>50260.2096</v>
+        <v>50259.6897</v>
       </c>
       <c r="L7" s="1">
-        <v>13.0942</v>
+        <v>13.1221</v>
       </c>
       <c r="M7" s="1">
         <v>0.4</v>
       </c>
       <c r="N7" s="1">
-        <v>1080.7619</v>
+        <v>1078.4078</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8919.2381</v>
+        <v>-8921.592199999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0205</v>
+        <v>0.0196</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>12.9136</v>
       </c>
       <c r="C8" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D8" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E8" s="1">
-        <v>4657.786</v>
+        <v>4647.93</v>
       </c>
       <c r="F8" s="1">
-        <v>858.0692</v>
+        <v>856.1697</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>60148.7849</v>
+        <v>59901.592</v>
       </c>
       <c r="I8" s="1">
-        <v>1080.7619</v>
+        <v>1078.4078</v>
       </c>
       <c r="J8" s="1">
-        <v>61229.5468</v>
+        <v>60979.9998</v>
       </c>
       <c r="K8" s="1">
-        <v>60260.2096</v>
+        <v>60259.6897</v>
       </c>
       <c r="L8" s="1">
-        <v>12.9375</v>
+        <v>12.9648</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11080.7619</v>
+        <v>-11078.4078</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0772</v>
+        <v>0.0765</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>13.4338</v>
       </c>
       <c r="C9" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D9" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E9" s="1">
-        <v>5515.8551</v>
+        <v>5504.0997</v>
       </c>
       <c r="F9" s="1">
-        <v>651.9236</v>
+        <v>676.0542</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>74098.8947</v>
+        <v>73792.9139</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>74098.8947</v>
+        <v>73792.9139</v>
       </c>
       <c r="K9" s="1">
-        <v>71340.9715</v>
+        <v>71338.0974</v>
       </c>
       <c r="L9" s="1">
-        <v>12.9338</v>
+        <v>12.9609</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8757.811</v>
+        <v>-9100.163399999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0403</v>
+        <v>0.0396</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,49 +3410,49 @@
         <v>12.9657</v>
       </c>
       <c r="C10" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D10" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E10" s="1">
-        <v>6167.7787</v>
+        <v>6180.1539</v>
       </c>
       <c r="F10" s="1">
-        <v>867.0715</v>
+        <v>838.9846</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>79969.5684</v>
+        <v>79969.95570000001</v>
       </c>
       <c r="I10" s="1">
-        <v>1242.189</v>
+        <v>899.8366</v>
       </c>
       <c r="J10" s="1">
-        <v>81211.7574</v>
+        <v>80869.7923</v>
       </c>
       <c r="K10" s="1">
-        <v>80098.7825</v>
+        <v>80438.2608</v>
       </c>
       <c r="L10" s="1">
-        <v>12.9866</v>
+        <v>13.0156</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1489.2809</v>
+        <v>1486.1069</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-9752.908100000001</v>
+        <v>-9413.7297</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0343</v>
+        <v>-0.0349</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>13.3568</v>
       </c>
       <c r="C11" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D11" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E11" s="1">
-        <v>7034.8502</v>
+        <v>7019.1386</v>
       </c>
       <c r="F11" s="1">
-        <v>798.0232999999999</v>
+        <v>829.4241</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>93963.0874</v>
+        <v>93565.81879999999</v>
       </c>
       <c r="I11" s="1">
-        <v>1489.2809</v>
+        <v>1486.1069</v>
       </c>
       <c r="J11" s="1">
-        <v>95452.3682</v>
+        <v>95051.92570000001</v>
       </c>
       <c r="K11" s="1">
-        <v>91340.9715</v>
+        <v>91338.0974</v>
       </c>
       <c r="L11" s="1">
-        <v>12.9841</v>
+        <v>13.0127</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10659.0381</v>
+        <v>-11100.6808</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0465</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>13.2487</v>
       </c>
       <c r="C12" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D12" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E12" s="1">
-        <v>7832.8735</v>
+        <v>7848.5627</v>
       </c>
       <c r="F12" s="1">
-        <v>817.457</v>
+        <v>782.3179</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>103775.3918</v>
+        <v>103775.2655</v>
       </c>
       <c r="I12" s="1">
-        <v>830.2428</v>
+        <v>385.4261</v>
       </c>
       <c r="J12" s="1">
-        <v>104605.6346</v>
+        <v>104160.6916</v>
       </c>
       <c r="K12" s="1">
-        <v>102000.0096</v>
+        <v>102438.7782</v>
       </c>
       <c r="L12" s="1">
-        <v>13.022</v>
+        <v>13.0519</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10830.2428</v>
+        <v>-10385.4261</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.008</v>
+        <v>-0.008500000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,49 +3569,49 @@
         <v>13.3991</v>
       </c>
       <c r="C13" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D13" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E13" s="1">
-        <v>8650.330599999999</v>
+        <v>8630.880499999999</v>
       </c>
       <c r="F13" s="1">
-        <v>746.3188</v>
+        <v>744.829</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>115906.6443</v>
+        <v>115414.7239</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>115906.6443</v>
+        <v>115414.7239</v>
       </c>
       <c r="K13" s="1">
-        <v>112830.2524</v>
+        <v>112824.2043</v>
       </c>
       <c r="L13" s="1">
-        <v>13.0435</v>
+        <v>13.0722</v>
       </c>
       <c r="M13" s="1">
         <v>0.4</v>
       </c>
       <c r="N13" s="1">
-        <v>2819.8345</v>
+        <v>2825.4826</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7180.1655</v>
+        <v>-7174.5174</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0114</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>13.5985</v>
       </c>
       <c r="C14" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D14" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E14" s="1">
-        <v>9396.6494</v>
+        <v>9375.7096</v>
       </c>
       <c r="F14" s="1">
-        <v>-9396.6494</v>
+        <v>-9375.7096</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>127780.3362</v>
+        <v>127240.5673</v>
       </c>
       <c r="I14" s="1">
-        <v>2819.8345</v>
+        <v>2825.4826</v>
       </c>
       <c r="J14" s="1">
-        <v>130600.1707</v>
+        <v>130066.0499</v>
       </c>
       <c r="K14" s="1">
-        <v>122830.2524</v>
+        <v>122824.2043</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0717</v>
+        <v>13.1003</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>127780.3362</v>
+        <v>127240.5673</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0373</v>
+        <v>0.0371</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>13.835</v>
       </c>
       <c r="C2" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D2" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>722.8045</v>
+        <v>721.3602</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>14.4216</v>
       </c>
       <c r="C3" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D3" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E3" s="1">
-        <v>722.8045</v>
+        <v>721.3602</v>
       </c>
       <c r="F3" s="1">
-        <v>674.4053</v>
+        <v>678.6454</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10423.9971</v>
+        <v>10382.393</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10423.9971</v>
+        <v>10382.393</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9726.002899999999</v>
+        <v>-9806.764800000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.0424</v>
+        <v>0.0382</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,49 +3860,49 @@
         <v>13.2404</v>
       </c>
       <c r="C4" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D4" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E4" s="1">
-        <v>1397.2097</v>
+        <v>1400.0056</v>
       </c>
       <c r="F4" s="1">
-        <v>775.9582</v>
+        <v>768.3208</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>18499.6159</v>
+        <v>18499.5334</v>
       </c>
       <c r="I4" s="1">
-        <v>273.9971</v>
+        <v>193.2352</v>
       </c>
       <c r="J4" s="1">
-        <v>18773.613</v>
+        <v>18692.7687</v>
       </c>
       <c r="K4" s="1">
-        <v>19726.0029</v>
+        <v>19806.7648</v>
       </c>
       <c r="L4" s="1">
-        <v>14.1181</v>
+        <v>14.1476</v>
       </c>
       <c r="M4" s="1">
         <v>0.4</v>
       </c>
       <c r="N4" s="1">
-        <v>260.2096</v>
+        <v>259.6897</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10013.7875</v>
+        <v>-9933.5455</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0808</v>
+        <v>-0.0829</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>12.382</v>
       </c>
       <c r="C5" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D5" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E5" s="1">
-        <v>2173.168</v>
+        <v>2168.3264</v>
       </c>
       <c r="F5" s="1">
-        <v>828.6391</v>
+        <v>826.9408</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>26908.1656</v>
+        <v>26794.4425</v>
       </c>
       <c r="I5" s="1">
-        <v>260.2096</v>
+        <v>259.6897</v>
       </c>
       <c r="J5" s="1">
-        <v>27168.3752</v>
+        <v>27054.1321</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.8047</v>
+        <v>13.8356</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10260.2096</v>
+        <v>-10259.6897</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0558</v>
+        <v>-0.0571</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>11.9583</v>
       </c>
       <c r="C6" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D6" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E6" s="1">
-        <v>3001.8071</v>
+        <v>2995.2672</v>
       </c>
       <c r="F6" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>35896.5095</v>
+        <v>35746.7169</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>35896.5095</v>
+        <v>35746.7169</v>
       </c>
       <c r="K6" s="1">
-        <v>40260.2096</v>
+        <v>40259.6897</v>
       </c>
       <c r="L6" s="1">
-        <v>13.412</v>
+        <v>13.4411</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4008,7 +4008,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.0342</v>
+        <v>-0.0353</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,49 +4019,49 @@
         <v>12.2036</v>
       </c>
       <c r="C7" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D7" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E7" s="1">
-        <v>3838.0463</v>
+        <v>3829.8315</v>
       </c>
       <c r="F7" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>46837.9823</v>
+        <v>46644.284</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>46837.9823</v>
+        <v>46644.284</v>
       </c>
       <c r="K7" s="1">
-        <v>50260.2096</v>
+        <v>50259.6897</v>
       </c>
       <c r="L7" s="1">
-        <v>13.0953</v>
+        <v>13.1232</v>
       </c>
       <c r="M7" s="1">
         <v>0.4</v>
       </c>
       <c r="N7" s="1">
-        <v>1080.6505</v>
+        <v>1078.2962</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8919.3495</v>
+        <v>-8921.703799999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0205</v>
+        <v>0.0196</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>12.9136</v>
       </c>
       <c r="C8" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D8" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E8" s="1">
-        <v>4657.4767</v>
+        <v>4647.6201</v>
       </c>
       <c r="F8" s="1">
-        <v>858.0605</v>
+        <v>856.1611</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>60144.7908</v>
+        <v>59897.5977</v>
       </c>
       <c r="I8" s="1">
-        <v>1080.6505</v>
+        <v>1078.2962</v>
       </c>
       <c r="J8" s="1">
-        <v>61225.4413</v>
+        <v>60975.8939</v>
       </c>
       <c r="K8" s="1">
-        <v>60260.2096</v>
+        <v>60259.6897</v>
       </c>
       <c r="L8" s="1">
-        <v>12.9384</v>
+        <v>12.9657</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11080.6505</v>
+        <v>-11078.2962</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0772</v>
+        <v>0.0765</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>13.4338</v>
       </c>
       <c r="C9" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D9" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E9" s="1">
-        <v>5515.5372</v>
+        <v>5503.7811</v>
       </c>
       <c r="F9" s="1">
-        <v>744.391</v>
+        <v>742.9034</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>74094.6238</v>
+        <v>73788.64320000001</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>74094.6238</v>
+        <v>73788.64320000001</v>
       </c>
       <c r="K9" s="1">
-        <v>71340.8602</v>
+        <v>71337.9859</v>
       </c>
       <c r="L9" s="1">
-        <v>12.9345</v>
+        <v>12.9616</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4167,7 +4167,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0403</v>
+        <v>0.0396</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,49 +4178,49 @@
         <v>12.9657</v>
       </c>
       <c r="C10" s="1">
-        <v>12.9657</v>
+        <v>12.9398</v>
       </c>
       <c r="D10" s="1">
-        <v>12.9657</v>
+        <v>12.9917</v>
       </c>
       <c r="E10" s="1">
-        <v>6259.9282</v>
+        <v>6246.6845</v>
       </c>
       <c r="F10" s="1">
-        <v>771.2657</v>
+        <v>769.7222</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>81164.3514</v>
+        <v>80830.8486</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>81164.3514</v>
+        <v>80830.8486</v>
       </c>
       <c r="K10" s="1">
-        <v>81340.8602</v>
+        <v>81337.9859</v>
       </c>
       <c r="L10" s="1">
-        <v>12.9939</v>
+        <v>13.021</v>
       </c>
       <c r="M10" s="1">
         <v>0.3</v>
       </c>
       <c r="N10" s="1">
-        <v>1489.195</v>
+        <v>1486.0209</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-8510.805</v>
+        <v>-8513.9791</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0348</v>
+        <v>-0.0353</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>13.3568</v>
       </c>
       <c r="C11" s="1">
-        <v>13.3568</v>
+        <v>13.3301</v>
       </c>
       <c r="D11" s="1">
-        <v>13.3568</v>
+        <v>13.3836</v>
       </c>
       <c r="E11" s="1">
-        <v>7031.1939</v>
+        <v>7016.4067</v>
       </c>
       <c r="F11" s="1">
-        <v>860.1757</v>
+        <v>858.2161</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>93914.2513</v>
+        <v>93529.40360000001</v>
       </c>
       <c r="I11" s="1">
-        <v>1489.195</v>
+        <v>1486.0209</v>
       </c>
       <c r="J11" s="1">
-        <v>95403.4464</v>
+        <v>95015.42449999999</v>
       </c>
       <c r="K11" s="1">
-        <v>91340.8602</v>
+        <v>91337.9859</v>
       </c>
       <c r="L11" s="1">
-        <v>12.9908</v>
+        <v>13.0178</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11489.195</v>
+        <v>-11486.0209</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0465</v>
+        <v>0.0461</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>13.2487</v>
       </c>
       <c r="C12" s="1">
-        <v>13.2487</v>
+        <v>13.2222</v>
       </c>
       <c r="D12" s="1">
-        <v>13.2487</v>
+        <v>13.2752</v>
       </c>
       <c r="E12" s="1">
-        <v>7891.3697</v>
+        <v>7874.6228</v>
       </c>
       <c r="F12" s="1">
-        <v>754.7910000000001</v>
+        <v>753.2843</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>104550.3893</v>
+        <v>104119.8381</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>104550.3893</v>
+        <v>104119.8381</v>
       </c>
       <c r="K12" s="1">
-        <v>102830.0552</v>
+        <v>102824.0068</v>
       </c>
       <c r="L12" s="1">
-        <v>13.0307</v>
+        <v>13.0576</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4326,7 +4326,7 @@
         <v>-10000</v>
       </c>
       <c r="Q12" s="3">
-        <v>-0.0081</v>
+        <v>-0.008500000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,49 +4337,49 @@
         <v>13.3991</v>
       </c>
       <c r="C13" s="1">
-        <v>13.3991</v>
+        <v>13.3723</v>
       </c>
       <c r="D13" s="1">
-        <v>13.3991</v>
+        <v>13.4259</v>
       </c>
       <c r="E13" s="1">
-        <v>8646.1607</v>
+        <v>8627.9072</v>
       </c>
       <c r="F13" s="1">
-        <v>746.3188</v>
+        <v>744.829</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>115850.7719</v>
+        <v>115374.9629</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>115850.7719</v>
+        <v>115374.9629</v>
       </c>
       <c r="K13" s="1">
-        <v>112830.0552</v>
+        <v>112824.0068</v>
       </c>
       <c r="L13" s="1">
-        <v>13.0497</v>
+        <v>13.0766</v>
       </c>
       <c r="M13" s="1">
         <v>0.4</v>
       </c>
       <c r="N13" s="1">
-        <v>2840.8931</v>
+        <v>2834.8642</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7159.1069</v>
+        <v>-7165.1358</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0114</v>
+        <v>0.011</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>13.5985</v>
       </c>
       <c r="C14" s="1">
-        <v>13.5985</v>
+        <v>13.5713</v>
       </c>
       <c r="D14" s="1">
-        <v>13.5985</v>
+        <v>13.6257</v>
       </c>
       <c r="E14" s="1">
-        <v>9392.479499999999</v>
+        <v>9372.736199999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9392.479499999999</v>
+        <v>-9372.736199999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>127723.6323</v>
+        <v>127200.2146</v>
       </c>
       <c r="I14" s="1">
-        <v>2840.8931</v>
+        <v>2834.8642</v>
       </c>
       <c r="J14" s="1">
-        <v>130564.5254</v>
+        <v>130035.0788</v>
       </c>
       <c r="K14" s="1">
-        <v>122830.0552</v>
+        <v>122824.0068</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0775</v>
+        <v>13.1044</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>127723.6323</v>
+        <v>127200.2146</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0375</v>
+        <v>0.0372</v>
       </c>
     </row>
   </sheetData>
@@ -4454,7 +4454,7 @@
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.0833</v>
+        <v>13.1095</v>
       </c>
       <c r="D3" s="1">
-        <v>13.0549</v>
+        <v>13.0817</v>
       </c>
       <c r="E3" s="1">
-        <v>13.0598</v>
+        <v>13.0884</v>
       </c>
       <c r="F3" s="1">
-        <v>13.0717</v>
+        <v>13.1003</v>
       </c>
       <c r="G3" s="1">
-        <v>13.0775</v>
+        <v>13.1044</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.0061</v>
       </c>
       <c r="C4" s="3">
-        <v>0.0597</v>
+        <v>0.0472</v>
       </c>
       <c r="D4" s="3">
-        <v>0.0609</v>
+        <v>0.0486</v>
       </c>
       <c r="E4" s="3">
-        <v>0.0624</v>
+        <v>0.0498</v>
       </c>
       <c r="F4" s="3">
-        <v>0.0625</v>
+        <v>0.0496</v>
       </c>
       <c r="G4" s="3">
-        <v>0.0619</v>
+        <v>0.0491</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1478</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1589</v>
+        <v>0.1592</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1575</v>
+        <v>0.1579</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1582</v>
+        <v>0.1586</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1587</v>
+        <v>0.1591</v>
       </c>
       <c r="G5" s="3">
-        <v>0.159</v>
+        <v>0.1593</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-0.1789</v>
       </c>
       <c r="C6" s="4">
-        <v>0.2479</v>
+        <v>0.1689</v>
       </c>
       <c r="D6" s="4">
-        <v>0.2577</v>
+        <v>0.1793</v>
       </c>
       <c r="E6" s="4">
-        <v>0.2658</v>
+        <v>0.1856</v>
       </c>
       <c r="F6" s="4">
-        <v>0.266</v>
+        <v>0.184</v>
       </c>
       <c r="G6" s="4">
-        <v>0.2618</v>
+        <v>0.1805</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.1667</v>
+        <v>0.1582</v>
       </c>
       <c r="D7" s="3">
-        <v>0.1695</v>
+        <v>0.1611</v>
       </c>
       <c r="E7" s="3">
-        <v>0.1697</v>
+        <v>0.161</v>
       </c>
       <c r="F7" s="3">
-        <v>0.1688</v>
+        <v>0.1599</v>
       </c>
       <c r="G7" s="3">
-        <v>0.1677</v>
+        <v>0.1591</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>5601.1886</v>
+        <v>5589.8949</v>
       </c>
       <c r="D8" s="1">
-        <v>5500.0238</v>
+        <v>5505.4787</v>
       </c>
       <c r="E8" s="1">
-        <v>5583.5089</v>
+        <v>5586.6389</v>
       </c>
       <c r="F8" s="1">
-        <v>5650.0869</v>
+        <v>5649.6869</v>
       </c>
       <c r="G8" s="1">
-        <v>5670.9483</v>
+        <v>5658.871</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P55_KFSDIV.xlsx
+++ b/output/1Y_P55_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.835</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.4216</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.2404</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.382</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.9583</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.2036</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.9136</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.4338</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.9657</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.3568</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.2487</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.3991</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.5985</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.835</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.4216</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.2404</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.382</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.9583</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.2036</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.9136</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.4338</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.9657</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.3568</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.2487</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.3991</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.5985</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.835</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.4216</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.2404</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.382</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.9583</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.2036</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.9136</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.4338</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.9657</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.3568</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.2487</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.3991</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.5985</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.835</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.4216</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.2404</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.382</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.9583</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.2036</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.9136</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.4338</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.9657</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.3568</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.2487</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.3991</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.5985</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>13.835</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>14.4216</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>13.2404</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>12.382</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>11.9583</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>12.2036</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>12.9136</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.4338</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.9657</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>13.3568</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.2487</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.3991</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.5985</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>6715.5141</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0603</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1151</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.086</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0616</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.061</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
